--- a/nriss-patch-1/ig/StructureDefinition-tddui-task-prestation.xlsx
+++ b/nriss-patch-1/ig/StructureDefinition-tddui-task-prestation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:22:07+00:00</t>
+    <t>2025-12-19T09:47:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Task</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Task|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -860,7 +860,7 @@
     <t>Task.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-personnalise)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-personnalise|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -900,7 +900,7 @@
     <t>Task.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-task-action)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-task-action|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -976,7 +976,7 @@
     <t>auteurStatut</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-status-author}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-status-author|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1702,7 +1702,7 @@
     <t>Inputs are named to enable task automation to bind data and pass it from one task to the next.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/input-tddui-task-prestation-valueset</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/input-tddui-task-prestation-valueset|2.2.0-ballot</t>
   </si>
   <si>
     <t>Task.input.value[x]</t>
@@ -1785,7 +1785,7 @@
     <t>Task.input:typePrestation.value[x]</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-serafin-valueset</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-serafin-valueset|2.2.0-ballot</t>
   </si>
   <si>
     <t>Task.input:evaluation</t>
@@ -1823,7 +1823,7 @@
     <t>Task.input:evaluation.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-questionnaire-response)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-questionnaire-response|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1862,7 +1862,7 @@
     <t>Task.input:pieceJointe.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-document-reference)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-document-reference|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -2250,7 +2250,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="143.0390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="70.22265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="79.73046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
